--- a/src/main/service/course.xlsx
+++ b/src/main/service/course.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>表格 1</t>
   </si>
@@ -44,19 +44,19 @@
     <t>exam_type</t>
   </si>
   <si>
-    <t>CS130001.01</t>
-  </si>
-  <si>
-    <t>程序设计</t>
+    <t>CS130002.01</t>
+  </si>
+  <si>
+    <t>面向对象程序设计</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>周一 第01-02节 2203; 周二 第06-07节 2104</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>周一 第01-02节 2104; 周二 第06-07节 2203</t>
   </si>
   <si>
     <t>周一 08:00-10:00</t>
@@ -65,25 +65,28 @@
     <t>paper</t>
   </si>
   <si>
-    <t>SS140004.01</t>
-  </si>
-  <si>
-    <t>高等数学</t>
-  </si>
-  <si>
-    <t>周二 第02-04节 2208</t>
+    <t>SS140005.01</t>
+  </si>
+  <si>
+    <t>高等数学下</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>周二 第02-04节 2203</t>
   </si>
   <si>
     <t>周二 13:30-15:30</t>
   </si>
   <si>
-    <t>MT170003.17</t>
-  </si>
-  <si>
-    <t>数字部件</t>
-  </si>
-  <si>
-    <t>周五 第06-08节 2203</t>
+    <t>MT150003.18</t>
+  </si>
+  <si>
+    <t>数字部件设计</t>
+  </si>
+  <si>
+    <t>周五 第06-08节 2208</t>
   </si>
   <si>
     <t>essay</t>
@@ -245,11 +248,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1373,12 +1376,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -1450,10 +1453,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="10">
         <v>51</v>
@@ -1462,7 +1465,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s" s="9">
         <v>16</v>
@@ -1470,19 +1473,19 @@
     </row>
     <row r="5" ht="29" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
       </c>
       <c r="D5" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10">
         <v>51</v>
@@ -1492,7 +1495,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" t="s" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
